--- a/biology/Médecine/Classe_ATC_J01/Classe_ATC_J01.xlsx
+++ b/biology/Médecine/Classe_ATC_J01/Classe_ATC_J01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC.
 J Anti-infectieux systémiques
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J01AA Tétracyclines
-J01AA01 Déméclocycline
+          <t>J01AA Tétracyclines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>J01AA01 Déméclocycline
 J01AA02 Doxycycline
 J01AA03 Chlortétracycline
 J01AA04 Lymécycline
@@ -559,8 +576,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>J01BA Phénicols
-J01BA01 Chloramphénicol
+          <t>J01BA Phénicols</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J01BA01 Chloramphénicol
 J01BA02 Thiamphénicol
 J01BA52 Thiamphénicol, associations
 QJ01BA90 Florfénicol
@@ -594,8 +616,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>J01CA Pénicillines à spectre large
-J01CA01 Ampicilline
+          <t>J01CA Pénicillines à spectre large</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J01CA01 Ampicilline
 J01CA02 Pivampicilline
 J01CA03 Carbenicilline
 J01CA04 Amoxicilline
@@ -615,9 +642,43 @@
 J01CA18 Hétacilline
 J01CA19 Aspoxicilline
 J01CA20 Associations
-J01CA51 Ampicilline, associations
-J01CE Pénicillines sensibles aux bêta-lactamases
-J01CE01 Benzylpénicilline
+J01CA51 Ampicilline, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J01C Antibactériens bêta-lactamines, pénicillines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J01CE Pénicillines sensibles aux bêta-lactamases</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J01CE01 Benzylpénicilline
 J01CE02 Phénoxyméthylpénicilline
 J01CE03 Propicilline
 J01CE04 Azidocilline
@@ -629,19 +690,121 @@
 J01CE10 Benzathine phénoxyméthylpénicilline
 J01CE30 Associations
 QJ01CE90 Pénéthamate hydroiodure
-QJ01CE91 Bénéthamine pénicilline
-J01CF Pénicillines résistantes aux bêta-lactamases
-J01CF01 Dicloxacilline
+QJ01CE91 Bénéthamine pénicilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>J01C Antibactériens bêta-lactamines, pénicillines</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>J01CF Pénicillines résistantes aux bêta-lactamases</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J01CF01 Dicloxacilline
 J01CF02 Cloxacilline
 J01CF03 Méthicilline
 J01CF04 Oxacilline
 J01CF05 Flucloxacilline
-J01CF06 Nafcilline
-J01CG Inhibiteurs des bêta-lactamases
-J01CG01 Sulbactam
-J01CG02 Tazobactam
-J01CR Associations de pénicillines avec un inhibiteur des bêta-lactamases
-J01CR01 Ampicilline et inhibiteur des bêta-lactamases
+J01CF06 Nafcilline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>J01C Antibactériens bêta-lactamines, pénicillines</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>J01CG Inhibiteurs des bêta-lactamases</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J01CG01 Sulbactam
+J01CG02 Tazobactam</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>J01C Antibactériens bêta-lactamines, pénicillines</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>J01CR Associations de pénicillines avec un inhibiteur des bêta-lactamases</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>J01CR01 Ampicilline et inhibiteur des bêta-lactamases
 J01CR02 Amoxicilline et inhibiteur des bêta-lactamases
 J01CR03 Ticarcilline et inhibiteur des bêta-lactamases
 J01CR04 Sultamicilline
@@ -650,34 +813,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>J01D Autres antibactériens bêta-lactamines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>J01DB Céphalosporines de première génération
-J01DB01 Céfalexine
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>J01DB Céphalosporines de première génération</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>J01DB01 Céfalexine
 J01DB02 Céfaloridine (en)
 J01DB03 Céfalotine
 J01DB04 Céfazoline
@@ -688,9 +856,43 @@
 J01DB09 Céfradine
 J01DB10 Céfacétrile (en)
 J01DB11 Cefroxadine (en)
-J01DB12 Ceftézole (en)
-J01DC Céphalosporines de deuxième génération
-J01DC01 Céfoxitine
+J01DB12 Ceftézole (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J01DC Céphalosporines de deuxième génération</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>J01DC01 Céfoxitine
 J01DC02 Céfuroxime
 J01DC03 Céfamandole
 J01DC04 Céfaclor
@@ -703,9 +905,43 @@
 J01DC11 Céforanide (en)
 J01DC12 Cefminox (en)
 J01DC13 Cefbupérazone (en)
-J01DC14 Flomoxef (en)
-J01DD Céphalosporines de troisième génération
-J01DD01 Céfotaxime
+J01DC14 Flomoxef (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J01DD Céphalosporines de troisième génération</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>J01DD01 Céfotaxime
 J01DD02 Ceftazidime
 J01DD03 Cefsulodine
 J01DD04 Ceftriaxone
@@ -729,62 +965,237 @@
 J01DD63 Ceftriaxone et inhibiteur des bêta-lactamases
 QJ01DD90 Ceftiofur
 QJ01DD91 Céfovécine
-QJ01DD99 Ceftiofur, associations
-J01DE Céphalosporines de quatrième génération
-J01DE01 Céfépime
+QJ01DD99 Ceftiofur, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J01DE Céphalosporines de quatrième génération</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>J01DE01 Céfépime
 J01DE02 Cefpirome
 J01DE03 Céfozopran (en)
-QJ01DE90 Cefquinome
-J01DF Monobactames
-J01DF01 Aztréonam
-J01DF02 Carumonam (en)
-J01DH Carbapénèmes
-J01DH02 Méropénème
+QJ01DE90 Cefquinome</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>J01DF Monobactames</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>J01DF01 Aztréonam
+J01DF02 Carumonam (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>J01DH Carbapénèmes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>J01DH02 Méropénème
 J01DH03 Ertapénème
 J01DH04 Doripénème
 J01DH05 Biapénème (en)
 J01DH51 Imipénème et cilastatine
-J01DH55 Panipénème et bêtamipron (en)
-J01DI Autres céphalosporines et pénèmes
-J01DI01 Ceftobiprole médocaril
+J01DH55 Panipénème et bêtamipron (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>J01D Autres antibactériens bêta-lactamines</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>J01DI Autres céphalosporines et pénèmes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>J01DI01 Ceftobiprole médocaril
 J01DI02 Ceftaroline fosamil
 J01DI03 Faropénème
 J01DI54 Ceftolozane et inhibiteur des bêta-lactamases</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>J01E Sulfamidés et triméthoprime</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>J01EA Triméthoprime et dérivés
-J01EA01 Triméthoprime
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>J01EA Triméthoprime et dérivés</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>J01EA01 Triméthoprime
 J01EA02 Brodimoprime
-J01EA03 Iclaprime
-J01EB Sulfamidés de courte demi-vie
-J01EB01 Sulfaisodimidine
+J01EA03 Iclaprime</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>J01EB Sulfamidés de courte demi-vie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>J01EB01 Sulfaisodimidine
 J01EB02 Sulfaméthizole
 J01EB03 Sulfadimidine
 J01EB04 Sulfapyridine
@@ -792,14 +1203,82 @@
 J01EB06 Sulfanilamide
 J01EB07 Sulfathiazole
 J01EB08 Sulfathiourée
-J01EB20 Associations
-J01EC Sulfamidés de demi-vie intermédiaire
-J01EC01 Sulfaméthoxazole
+J01EB20 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>J01EC Sulfamidés de demi-vie intermédiaire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>J01EC01 Sulfaméthoxazole
 J01EC02 Sulfadiazine
 J01EC03 Sulfamoxole
-J01EC20 Associations
-J01ED Sulfamidés de longue demi-vie
-J01ED01 Sulfadimethoxine
+J01EC20 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>J01ED Sulfamidés de longue demi-vie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>J01ED01 Sulfadimethoxine
 J01ED02 Sulfalène
 J01ED03 Sulfamétomidine
 J01ED04 Sulfamétoxydiazine
@@ -808,17 +1287,85 @@
 J01ED07 Sulfamérazine
 J01ED08 Sulfaphénazole
 J01ED09 Sulfamazone
-J01ED20 Associations
-J01EE Associations de sulfamidés et triméthoprime, y compris des dérivés
-J01EE01 Sulfaméthoxazole et triméthoprime
+J01ED20 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>J01EE Associations de sulfamidés et triméthoprime, y compris des dérivés</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>J01EE01 Sulfaméthoxazole et triméthoprime
 J01EE02 Sulfadiazine et triméthoprime
 J01EE03 Sulfametrole et triméthoprime
 J01EE04 Sulfamoxole et triméthoprime
 J01EE05 Sulfadimidine et triméthoprime
 J01EE06 Sulfadiazine et tétroxoprime
-J01EE07 Sulfamérazine et triméthoprime
-QJ01EQ Sulfamides
-QJ01EQ01 Sulfapyrazole
+J01EE07 Sulfamérazine et triméthoprime</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>QJ01EQ Sulfamides</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>QJ01EQ01 Sulfapyrazole
 QJ01EQ02 Sulfaméthizole
 QJ01EQ03 Sulfadimidine
 QJ01EQ04 Sulfapyridine
@@ -839,9 +1386,43 @@
 QJ01EQ19 Sulfalène
 QJ01EQ21 Sulfacétamide
 QJ01EQ30 Associations de sulfamides
-QJ01EQ59 Sulfadiméthoxine, associations
-QJ01EW Associations de sulfamides et triméthoprime, incluant les dérivés
-QJ01EW03 Sulfadimidine et triméthoprime
+QJ01EQ59 Sulfadiméthoxine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>J01E Sulfamidés et triméthoprime</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>QJ01EW Associations de sulfamides et triméthoprime, incluant les dérivés</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>QJ01EW03 Sulfadimidine et triméthoprime
 QJ01EW09 Sulfadiméthoxine et triméthoprime
 QJ01EW10 Sulfadiazine et triméthoprime
 QJ01EW11 Sulfaméthoxazole et triméthoprime
@@ -856,34 +1437,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>J01F Macrolides, lincosamides et streptogramines</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>J01FA Macrolides
-J01FA01 Érythromycine
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>J01FA Macrolides</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>J01FA01 Érythromycine
 J01FA02 Spiramycine
 J01FA03 Midécamycine
 J01FA05 Oléandomycine
@@ -904,50 +1490,157 @@
 QJ01FA93 Kitasamycine
 QJ01FA94 Tulathromycine
 QJ01FA95 Gamithromycine
-QJ01FA96 Tildipirosine
-J01FF Lincosamides
-J01FF01 Clindamycine
+QJ01FA96 Tildipirosine</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>J01F Macrolides, lincosamides et streptogramines</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>J01FF Lincosamides</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>J01FF01 Clindamycine
 J01FF02 Lincomycine
-QJ01FF52 Lincomycine, associations
-J01FG Streptogramines
-J01FG01 Pristinamycine
+QJ01FF52 Lincomycine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>J01F Macrolides, lincosamides et streptogramines</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>J01FG Streptogramines</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>J01FG01 Pristinamycine
 J01FG02 Quinupristine-dalfopristine
 QJ01FG90 Virginiamycine</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>J01G Antibactériens aminosides</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>J01GA Streptomycines
-J01GA01 Streptomycine
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>J01GA Streptomycines</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>J01GA01 Streptomycine
 J01GA02 Streptoduocine
-QJ01GA90 Dihydrostreptomycine
-J01GB Autres aminosides
-J01GB01 Tobramycine
+QJ01GA90 Dihydrostreptomycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>J01G Antibactériens aminosides</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>J01GB Autres aminosides</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>J01GB01 Tobramycine
 J01GB03 Gentamicine
 J01GB04 Kanamycine
 J01GB05 Néomycine
@@ -965,34 +1658,39 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>J01M Antibactériens quinolones</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">J01MA Fluoroquinolones
-J01MA01 Ofloxacine
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>J01MA Fluoroquinolones</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>J01MA01 Ofloxacine
 J01MA02 Ciprofloxacine
 J01MA03 Péfloxacine
 J01MA04 Énoxacine
@@ -1018,50 +1716,123 @@
 QJ01MA94 Difloxacine
 QJ01MA95 Orbifloxacine
 QJ01MA96 Ibafloxacine
-QJ01MA97 Pradofloxacine
-J01MB Autres quinolones
-J01MB01 Rosoxacine
+QJ01MA97 Pradofloxacine</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>J01M Antibactériens quinolones</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>J01MB Autres quinolones</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>J01MB01 Rosoxacine
 J01MB02 Acide nalidixique
 J01MB03 Acide piromidique
 J01MB04 Acide pipémidique
 J01MB05 Acide oxolinique
 J01MB06 Cinoxacine
 J01MB07 Fluméquine
-J01MB08 Némonoxacine
-QJ01MQ Quinoxalines
-QJ01MQ01 Olaquindox
+J01MB08 Némonoxacine</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>J01M Antibactériens quinolones</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>QJ01MQ Quinoxalines</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QJ01MQ01 Olaquindox
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>J01R Associations d'antibactériens</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">J01RA Associations d'antibactériens
-J01RA01 Pénicillines, associations avec d'autres antibactériens
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>J01RA Associations d'antibactériens</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>J01RA01 Pénicillines, associations avec d'autres antibactériens
 J01RA02 Sulfamidés, associations avec d'autres antibactériens (triméthoprime exclu)
 J01RA03 Céfuroxime, associations avec d'autres antibactériens
 J01RA04 Spiramycine et métronidazole
@@ -1080,65 +1851,308 @@
 QJ01RA94 Lincosamides, associations avec d'autres antibactériens
 QJ01RA95 Polymyxines, associations avec d'autres antibactériens
 QJ01RA96 Quinolones, associations avec d'autres antibactériens
-QJ01RA97 Aminosides, associations avec d'autres antibactériens
-QJ01RV Associations d'antibactériens et d'autres substances
-QJ01RV01 Antibactériens et corticostéroïdes
+QJ01RA97 Aminosides, associations avec d'autres antibactériens</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>J01R Associations d'antibactériens</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>QJ01RV Associations d'antibactériens et d'autres substances</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QJ01RV01 Antibactériens et corticostéroïdes
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>J01X Autres antibactériens</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>J01XA Antibactériens glycopeptides
-J01XA01 Vancomycine
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>J01XA Antibactériens glycopeptides</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>J01XA01 Vancomycine
 J01XA02 Teïcoplanine
 J01XA03 Télavancine
 J01XA04 Dalbavancine
-J01XA05 Oritavancine
-J01XB Polymyxines
-J01XB01 Colistine
-J01XB02 Polymyxine B
-J01XC Antibactériens stéroïdiens
-J01XC01 Acide fusidique
-J01XD Dérivés de l'imidazole
-J01XD01 Métronidazole
+J01XA05 Oritavancine</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>J01XB Polymyxines</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>J01XB01 Colistine
+J01XB02 Polymyxine B</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>J01XC Antibactériens stéroïdiens</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>J01XC01 Acide fusidique</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>J01XD Dérivés de l'imidazole</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>J01XD01 Métronidazole
 J01XD02 Tinidazole
-J01XD03 Ornidazole
-J01XE Dérivés du nitrofurane
-J01XE01 Nitrofurantoïne
+J01XD03 Ornidazole</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>J01XE Dérivés du nitrofurane</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>J01XE01 Nitrofurantoïne
 J01XE02 Nifurtoïnol
 J01XE03 Furazidine
 J01XE51 Nitrofurantoïne, associations
-QJ01XE90 Furazolidine
-QJ01XQ Pleuromutilines
-QJ01XQ01 Tiamuline
-QJ01XQ02 Valnémuline
-J01XX Autres antibactériens
-J01XX01 Fosfomycine
+QJ01XE90 Furazolidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>QJ01XQ Pleuromutilines</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>QJ01XQ01 Tiamuline
+QJ01XQ02 Valnémuline</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>J01X Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>J01XX Autres antibactériens</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>J01XX01 Fosfomycine
 J01XX02 Xibornol
 J01XX03 Clofoctol
 J01XX04 Spectinomycine
